--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="30" windowWidth="12915" windowHeight="12585"/>
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Requirements</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>erledigt</t>
+  </si>
+  <si>
+    <t>von</t>
   </si>
 </sst>
 </file>
@@ -116,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +142,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -222,47 +231,51 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="40 % - Akzent1" xfId="3" builtinId="31"/>
-    <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -275,9 +288,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -315,7 +328,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -387,7 +400,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -564,163 +577,186 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -732,7 +768,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -744,7 +780,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
